--- a/similarity_report.xlsx
+++ b/similarity_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1878ed7d1837af71cc152f38dadd3c46e8cfa1d67a9a5b05bca45c46489b3814</t>
+          <t>b55ba0f869f6408674ee9c5229f261e06ad1572c52eaa23f5a10389616d62efe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.06</v>
+        <v>81.01000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131f95c51cc819465fa1797f6ccacf9d494aaaff46fa3eac73ae63ffbdfd8267</t>
+          <t>9218c8607323d7667f69ef26faea57cb861f9b3888a457ed9093c1b65eefa42b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>61.81</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6f570a6ab6aff575b8ffdc772a417215bb0cc4e79fb31507b4c705c319a0565a</t>
+          <t>b480fec95b84980e88e0e5958873b7194029ffbaa78369cfe5c0e4d64849fb32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.15</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>f08245ec3215eb50705b65da3da8d7172f8070831c4bb402ee1b2f14b660a4e7</t>
+          <t>35dca05612aede9c1db55a868b1cd314b5d05bac00bed577fd0d437103c2a4a4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,176 +541,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>838</v>
+        <v>125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No similar samples found</t>
+          <t>malware</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>086e4908d2bf5cd288c554af00ee39c483706800738dfcdbcab5a9e383277a17</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>malware</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>malware</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>96.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>aa603146bae5c864bcf575c63d9572fb9c39118e3e59ae411cfe18e839b6df9b</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>malware</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>No similar samples found</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>324f09d929fbc6d6e1d7fd09961e17c346454c80b70cd6e65783116a0750738a</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>malware</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No similar samples found</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1342ad4e99d000e27f3bcefe6ddc2c5baf094e405bd4d5a922608d174b343c30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>suspicious</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>suspicious</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>61.84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5444c6d3f82cd10f6204df211041fb7c4333ed3265678aa246a955fba394d10d</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mixed/unknown</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>mixed/unknown</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>94.42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>792ff3af10a3990249b709e43d6f50739bbb302dc3a511b4eafa1e33446ca5eb</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>54</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>No similar samples met threshold</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>7b4342a1b6cc8301591d0bfb7aa56c224f61d2e274543d5cf608c81d5108065b</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>No similar samples found</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
